--- a/Systems.xlsx
+++ b/Systems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="17895" windowHeight="12990" activeTab="1"/>
+    <workbookView xWindow="150" yWindow="45" windowWidth="23790" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="NOV_C+DNA_methylase×2 all" sheetId="2" r:id="rId1"/>
@@ -14,8 +14,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Spirin</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>See list "selected"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="323">
   <si>
     <t>Bsa288ORF9985P</t>
   </si>
@@ -615,13 +638,382 @@
   </si>
   <si>
     <t># represenative</t>
+  </si>
+  <si>
+    <t>Anoxybacillus species BCO1</t>
+  </si>
+  <si>
+    <t>Actinobacillus ureae NCTC10220</t>
+  </si>
+  <si>
+    <t>Actinobacillus ureae NCTC10221</t>
+  </si>
+  <si>
+    <t>Bacillus altitudinis RIT380</t>
+  </si>
+  <si>
+    <t>CCCGT</t>
+  </si>
+  <si>
+    <t>Bacillus species 17376</t>
+  </si>
+  <si>
+    <t>CCCGC</t>
+  </si>
+  <si>
+    <t>Bacillus cereus MRY14-0060</t>
+  </si>
+  <si>
+    <t>Bacillus cereus MRY14-0075</t>
+  </si>
+  <si>
+    <t>Bacteroides salyersiae BFG-288</t>
+  </si>
+  <si>
+    <t>Clostridiales bacterium WTE2008</t>
+  </si>
+  <si>
+    <t>Clostridioides difficile R1</t>
+  </si>
+  <si>
+    <t>Clostridioides difficile R2</t>
+  </si>
+  <si>
+    <t>Clostridioides difficile R3</t>
+  </si>
+  <si>
+    <t>Chryseobacterium species Hurlbut01</t>
+  </si>
+  <si>
+    <t>Cyanobacterium stanieri HL-69</t>
+  </si>
+  <si>
+    <t>Clostridium sticklandii</t>
+  </si>
+  <si>
+    <t>Eubacterium acidaminophilum</t>
+  </si>
+  <si>
+    <t>Flavobacterium aurantiibacter TH167</t>
+  </si>
+  <si>
+    <t>Flavobacteriaceae bacterium HQM9</t>
+  </si>
+  <si>
+    <t>Gut metagenome</t>
+  </si>
+  <si>
+    <t>Gillisia species Hel1_33_143</t>
+  </si>
+  <si>
+    <t>Geminocystis species NIES-3708</t>
+  </si>
+  <si>
+    <t>Gardnerella vaginalis CMW7778B</t>
+  </si>
+  <si>
+    <t>Kingella kingae 4177/66</t>
+  </si>
+  <si>
+    <t>Kingella kingae NCTC10529</t>
+  </si>
+  <si>
+    <t>Kingella kingae</t>
+  </si>
+  <si>
+    <t>Kingella negevensis SW7208426</t>
+  </si>
+  <si>
+    <t>Lactobacillus amylovorus MT30</t>
+  </si>
+  <si>
+    <t>Lactococcus lactis subsp. lactis NCDO 2118</t>
+  </si>
+  <si>
+    <t>Lactococcus lactis subsp. lactis KF147</t>
+  </si>
+  <si>
+    <t>Moraxella atlantae NCTC11091</t>
+  </si>
+  <si>
+    <t>Marivirga tractuosa</t>
+  </si>
+  <si>
+    <t>Nanoarchaeota archaeon isolate Modern_marine.mb.67</t>
+  </si>
+  <si>
+    <t>Neisseria mucosa C102</t>
+  </si>
+  <si>
+    <t>Neisseria mucosa FDAARGOS_758</t>
+  </si>
+  <si>
+    <t>Porphyromonas canoris COT-108 OH1224</t>
+  </si>
+  <si>
+    <t>Prevotella corporis MJR7716</t>
+  </si>
+  <si>
+    <t>Parabacteroides distasonis FDAARGOS_615</t>
+  </si>
+  <si>
+    <t>Prevotella fusca JCM 17724 W1435</t>
+  </si>
+  <si>
+    <t>Prevotella intermedia KCOM 2833</t>
+  </si>
+  <si>
+    <t>Prevotella intermedia KCOM 2838</t>
+  </si>
+  <si>
+    <t>Piscirickettsia species Y2</t>
+  </si>
+  <si>
+    <t>Prevotella melaninogenica F0054</t>
+  </si>
+  <si>
+    <t>Prevotella melaninogenica F0091</t>
+  </si>
+  <si>
+    <t>Prevotella multiformis</t>
+  </si>
+  <si>
+    <t>Planococcus species 107-1</t>
+  </si>
+  <si>
+    <t>Ruminococcus albus 8</t>
+  </si>
+  <si>
+    <t>Ruminococcus species Marseille-P328</t>
+  </si>
+  <si>
+    <t>Streptococcus mitis SK1073</t>
+  </si>
+  <si>
+    <t>Streptococcus mitis B6</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae SP6-BS73</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae isolate PKMM4</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae 6A-10</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae MDR-MM-0720-0522</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae NT_110_58</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae GA17971</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae 2245STDY5775666</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae MNZ85</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae NCTC11889</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae NCTC11899</t>
+  </si>
+  <si>
+    <t>Streptococcus ruminantium GUT-183</t>
+  </si>
+  <si>
+    <t>Streptococcus sanguinis KLC04R</t>
+  </si>
+  <si>
+    <t>Streptococcus sanguinis SK1</t>
+  </si>
+  <si>
+    <t>Streptococcus sanguinis NCTC7863</t>
+  </si>
+  <si>
+    <t>Organism</t>
+  </si>
+  <si>
+    <t>Bacillaceae</t>
+  </si>
+  <si>
+    <t>Bacillales</t>
+  </si>
+  <si>
+    <t>Bacilli</t>
+  </si>
+  <si>
+    <t>Firmicutes</t>
+  </si>
+  <si>
+    <t>Bacteria</t>
+  </si>
+  <si>
+    <t>Pasteurellaceae</t>
+  </si>
+  <si>
+    <t>Pasteurellales</t>
+  </si>
+  <si>
+    <t>Gammaproteobacteria</t>
+  </si>
+  <si>
+    <t>Proteobacteria</t>
+  </si>
+  <si>
+    <t>Bacteroidaceae</t>
+  </si>
+  <si>
+    <t>Bacteroidales</t>
+  </si>
+  <si>
+    <t>Bacteroidia</t>
+  </si>
+  <si>
+    <t>Bacteroidetes</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Eubacteriales</t>
+  </si>
+  <si>
+    <t>Clostridia</t>
+  </si>
+  <si>
+    <t>Peptostreptococcaceae</t>
+  </si>
+  <si>
+    <t>Weeksellaceae</t>
+  </si>
+  <si>
+    <t>Flavobacteriales</t>
+  </si>
+  <si>
+    <t>Flavobacteriia</t>
+  </si>
+  <si>
+    <t>Geminocystaceae</t>
+  </si>
+  <si>
+    <t>Chroococcales</t>
+  </si>
+  <si>
+    <t>Cyanobacteria</t>
+  </si>
+  <si>
+    <t>Clostridiaceae</t>
+  </si>
+  <si>
+    <t>Eubacteriaceae</t>
+  </si>
+  <si>
+    <t>Flavobacteriaceae</t>
+  </si>
+  <si>
+    <t>Chroococcaceae</t>
+  </si>
+  <si>
+    <t>Bifidobacteriaceae</t>
+  </si>
+  <si>
+    <t>Bifidobacteriales</t>
+  </si>
+  <si>
+    <t>Actinomycetia</t>
+  </si>
+  <si>
+    <t>Actinobacteria</t>
+  </si>
+  <si>
+    <t>Neisseriaceae</t>
+  </si>
+  <si>
+    <t>Neisseriales</t>
+  </si>
+  <si>
+    <t>Betaproteobacteria</t>
+  </si>
+  <si>
+    <t>Lactobacillaceae</t>
+  </si>
+  <si>
+    <t>Lactobacillales</t>
+  </si>
+  <si>
+    <t>Streptococcaceae</t>
+  </si>
+  <si>
+    <t>Moraxellaceae</t>
+  </si>
+  <si>
+    <t>Moraxellales</t>
+  </si>
+  <si>
+    <t>Marivirgaceae</t>
+  </si>
+  <si>
+    <t>Cytophagales</t>
+  </si>
+  <si>
+    <t>Cytophagia</t>
+  </si>
+  <si>
+    <t>Nanoarchaeota</t>
+  </si>
+  <si>
+    <t>Archaea</t>
+  </si>
+  <si>
+    <t>Porphyromonadaceae</t>
+  </si>
+  <si>
+    <t>Prevotellaceae</t>
+  </si>
+  <si>
+    <t>Tannerellaceae</t>
+  </si>
+  <si>
+    <t>Piscirickettsiaceae</t>
+  </si>
+  <si>
+    <t>Thiotrichales</t>
+  </si>
+  <si>
+    <t>Planococcaceae</t>
+  </si>
+  <si>
+    <t>Oscillospiraceae</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Superkingdom</t>
+  </si>
+  <si>
+    <t>Recognised sequence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,16 +1022,340 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -647,15 +1363,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -947,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -958,9 +1865,16 @@
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>195</v>
       </c>
@@ -973,8 +1887,29 @@
       <c r="D1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -987,8 +1922,26 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1001,8 +1954,26 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -1015,8 +1986,26 @@
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -1029,8 +2018,29 @@
       <c r="D5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -1043,8 +2053,29 @@
       <c r="D6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1057,8 +2088,29 @@
       <c r="D7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -1071,8 +2123,29 @@
       <c r="D8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1085,8 +2158,26 @@
       <c r="D9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1099,8 +2190,26 @@
       <c r="D10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1113,8 +2222,26 @@
       <c r="D11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -1127,8 +2254,26 @@
       <c r="D12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -1141,8 +2286,26 @@
       <c r="D13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1155,8 +2318,29 @@
       <c r="D14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1169,8 +2353,26 @@
       <c r="D15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -1183,8 +2385,26 @@
       <c r="D16">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1197,8 +2417,29 @@
       <c r="D17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1211,8 +2452,26 @@
       <c r="D18">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +2484,29 @@
       <c r="D19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1239,8 +2519,26 @@
       <c r="D20">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1253,8 +2551,26 @@
       <c r="D21">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1267,8 +2583,29 @@
       <c r="D22">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1281,8 +2618,26 @@
       <c r="D23">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1295,8 +2650,26 @@
       <c r="D24">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -1309,8 +2682,29 @@
       <c r="D25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>167</v>
       </c>
@@ -1323,8 +2717,26 @@
       <c r="D26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1337,8 +2749,29 @@
       <c r="D27">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -1351,8 +2784,26 @@
       <c r="D28">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -1365,8 +2816,26 @@
       <c r="D29">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="F29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -1379,8 +2848,29 @@
       <c r="D30">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1393,8 +2883,29 @@
       <c r="D31">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -1407,8 +2918,26 @@
       <c r="D32">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1421,8 +2950,29 @@
       <c r="D33">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1435,8 +2985,26 @@
       <c r="D34">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1449,8 +3017,29 @@
       <c r="D35">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -1463,8 +3052,26 @@
       <c r="D36">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1477,8 +3084,29 @@
       <c r="D37">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1491,8 +3119,29 @@
       <c r="D38">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -1505,8 +3154,26 @@
       <c r="D39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -1519,8 +3186,26 @@
       <c r="D40">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -1533,8 +3218,29 @@
       <c r="D41">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -1547,8 +3253,26 @@
       <c r="D42">
         <v>29</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -1561,8 +3285,26 @@
       <c r="D43">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1575,8 +3317,26 @@
       <c r="D44">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="F44" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>120</v>
       </c>
@@ -1589,8 +3349,26 @@
       <c r="D45">
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="F45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -1603,8 +3381,26 @@
       <c r="D46">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="F46" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -1617,8 +3413,29 @@
       <c r="D47">
         <v>31</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -1631,8 +3448,26 @@
       <c r="D48">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="F48" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -1645,8 +3480,29 @@
       <c r="D49">
         <v>33</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -1659,8 +3515,29 @@
       <c r="D50">
         <v>34</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>135</v>
       </c>
@@ -1673,8 +3550,29 @@
       <c r="D51">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1687,8 +3585,29 @@
       <c r="D52">
         <v>35</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>173</v>
       </c>
@@ -1701,8 +3620,29 @@
       <c r="D53">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -1715,8 +3655,29 @@
       <c r="D54">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>177</v>
       </c>
@@ -1729,8 +3690,26 @@
       <c r="D55">
         <v>35</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="F55" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -1743,8 +3722,26 @@
       <c r="D56">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="F56" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>139</v>
       </c>
@@ -1757,8 +3754,29 @@
       <c r="D57">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -1771,8 +3789,29 @@
       <c r="D58">
         <v>35</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -1785,8 +3824,26 @@
       <c r="D59">
         <v>35</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="F59" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -1799,8 +3856,29 @@
       <c r="D60">
         <v>35</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>188</v>
       </c>
@@ -1813,8 +3891,26 @@
       <c r="D61">
         <v>35</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="F61" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>189</v>
       </c>
@@ -1827,8 +3923,26 @@
       <c r="D62">
         <v>35</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="F62" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -1841,8 +3955,26 @@
       <c r="D63">
         <v>36</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="F63" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -1855,8 +3987,26 @@
       <c r="D64">
         <v>37</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="F64" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>192</v>
       </c>
@@ -1869,8 +4019,29 @@
       <c r="D65">
         <v>38</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -1882,6 +4053,24 @@
       </c>
       <c r="D66">
         <v>38</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1890,6 +4079,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1897,7 +4087,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/Systems.xlsx
+++ b/Systems.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="45" windowWidth="23790" windowHeight="12990"/>
+    <workbookView xWindow="645" yWindow="375" windowWidth="21735" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="NOV_C+DNA_methylase×2 all" sheetId="2" r:id="rId1"/>
     <sheet name="NOV_C+DNA_methylase×2 selected" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'NOV_C+DNA_methylase×2 all'!$A$1:$L$66</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -20,7 +23,7 @@
     <author>Spirin</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="324">
   <si>
     <t>Bsa288ORF9985P</t>
   </si>
@@ -1007,6 +1010,9 @@
   </si>
   <si>
     <t>Recognised sequence</t>
+  </si>
+  <si>
+    <t>System in REBASE</t>
   </si>
 </sst>
 </file>
@@ -1854,27 +1860,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>195</v>
       </c>
@@ -1884,32 +1891,35 @@
       <c r="C1" t="s">
         <v>197</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" t="s">
         <v>199</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>322</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>265</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>317</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>318</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>319</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>320</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1919,29 +1929,32 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1951,29 +1964,32 @@
       <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -1983,29 +1999,32 @@
       <c r="C4" t="s">
         <v>150</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2015,32 +2034,35 @@
       <c r="C5" t="s">
         <v>104</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -2050,32 +2072,35 @@
       <c r="C6" t="s">
         <v>107</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2085,32 +2110,35 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -2120,32 +2148,35 @@
       <c r="C8" t="s">
         <v>156</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2155,29 +2186,32 @@
       <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -2187,29 +2221,32 @@
       <c r="C10" t="s">
         <v>79</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2219,29 +2256,32 @@
       <c r="C11" t="s">
         <v>99</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>8</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -2251,29 +2291,32 @@
       <c r="C12" t="s">
         <v>157</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>8</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -2283,29 +2326,32 @@
       <c r="C13" t="s">
         <v>161</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>8</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2315,32 +2361,35 @@
       <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>9</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -2350,29 +2399,32 @@
       <c r="C15" t="s">
         <v>90</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>10</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -2382,29 +2434,32 @@
       <c r="C16" t="s">
         <v>97</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>11</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2414,32 +2469,35 @@
       <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2449,29 +2507,32 @@
       <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>13</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2481,32 +2542,35 @@
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>14</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2516,14 +2580,14 @@
       <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>15</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>279</v>
@@ -2537,8 +2601,11 @@
       <c r="K20" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2548,14 +2615,14 @@
       <c r="C21" t="s">
         <v>113</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>16</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>279</v>
@@ -2569,8 +2636,11 @@
       <c r="K21" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -2580,32 +2650,35 @@
       <c r="C22" t="s">
         <v>69</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>17</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -2615,29 +2688,32 @@
       <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>18</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2647,29 +2723,32 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>19</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -2679,32 +2758,35 @@
       <c r="C25" t="s">
         <v>166</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>20</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>167</v>
       </c>
@@ -2714,29 +2796,32 @@
       <c r="C26" t="s">
         <v>169</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>20</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -2746,32 +2831,35 @@
       <c r="C27" t="s">
         <v>87</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>20</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -2781,29 +2869,32 @@
       <c r="C28" t="s">
         <v>102</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>21</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -2813,29 +2904,32 @@
       <c r="C29" t="s">
         <v>94</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>22</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>132</v>
       </c>
@@ -2845,32 +2939,35 @@
       <c r="C30" t="s">
         <v>133</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>23</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -2880,32 +2977,35 @@
       <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>23</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2915,29 +3015,32 @@
       <c r="C32" t="s">
         <v>76</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>24</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2947,32 +3050,35 @@
       <c r="C33" t="s">
         <v>35</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>25</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -2982,14 +3088,14 @@
       <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>26</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>279</v>
@@ -2998,13 +3104,16 @@
         <v>279</v>
       </c>
       <c r="J34" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -3014,32 +3123,35 @@
       <c r="C35" t="s">
         <v>19</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35">
         <v>27</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -3049,29 +3161,32 @@
       <c r="C36" t="s">
         <v>152</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>27</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -3081,32 +3196,35 @@
       <c r="C37" t="s">
         <v>71</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>28</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K37" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -3116,32 +3234,35 @@
       <c r="C38" t="s">
         <v>40</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38">
         <v>29</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -3151,29 +3272,32 @@
       <c r="C39" t="s">
         <v>115</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39">
         <v>6</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K39" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -3183,29 +3307,32 @@
       <c r="C40" t="s">
         <v>172</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40">
         <v>29</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -3215,32 +3342,35 @@
       <c r="C41" t="s">
         <v>122</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>29</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -3250,29 +3380,32 @@
       <c r="C42" t="s">
         <v>123</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>29</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -3282,29 +3415,32 @@
       <c r="C43" t="s">
         <v>124</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43">
         <v>29</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3314,29 +3450,32 @@
       <c r="C44" t="s">
         <v>55</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44">
         <v>30</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>120</v>
       </c>
@@ -3346,29 +3485,32 @@
       <c r="C45" t="s">
         <v>125</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>29</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K45" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -3378,29 +3520,32 @@
       <c r="C46" t="s">
         <v>126</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46">
         <v>29</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -3410,32 +3555,35 @@
       <c r="C47" t="s">
         <v>73</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47">
         <v>31</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K47" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -3445,29 +3593,32 @@
       <c r="C48" t="s">
         <v>110</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48">
         <v>32</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K48" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -3477,32 +3628,35 @@
       <c r="C49" t="s">
         <v>86</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49">
         <v>33</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -3512,32 +3666,35 @@
       <c r="C50" t="s">
         <v>82</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50">
         <v>34</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>135</v>
       </c>
@@ -3547,32 +3704,35 @@
       <c r="C51" t="s">
         <v>176</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51">
         <v>35</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3582,32 +3742,35 @@
       <c r="C52" t="s">
         <v>52</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52">
         <v>35</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K52" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>173</v>
       </c>
@@ -3617,32 +3780,35 @@
       <c r="C53" t="s">
         <v>174</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53">
         <v>35</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -3652,32 +3818,35 @@
       <c r="C54" t="s">
         <v>140</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54">
         <v>35</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>177</v>
       </c>
@@ -3687,29 +3856,32 @@
       <c r="C55" t="s">
         <v>179</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55">
         <v>35</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>180</v>
       </c>
@@ -3719,29 +3891,32 @@
       <c r="C56" t="s">
         <v>182</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56">
         <v>35</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>139</v>
       </c>
@@ -3751,32 +3926,35 @@
       <c r="C57" t="s">
         <v>141</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57">
         <v>35</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K57" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -3786,32 +3964,35 @@
       <c r="C58" t="s">
         <v>143</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58">
         <v>35</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K58" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -3821,29 +4002,32 @@
       <c r="C59" t="s">
         <v>184</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59">
         <v>35</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K59" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -3853,32 +4037,35 @@
       <c r="C60" t="s">
         <v>142</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60">
         <v>35</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>188</v>
       </c>
@@ -3888,29 +4075,32 @@
       <c r="C61" t="s">
         <v>186</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61">
         <v>35</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>189</v>
       </c>
@@ -3920,29 +4110,32 @@
       <c r="C62" t="s">
         <v>191</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62">
         <v>35</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K62" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -3952,29 +4145,32 @@
       <c r="C63" t="s">
         <v>49</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63">
         <v>36</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="K63" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K63" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -3984,29 +4180,32 @@
       <c r="C64" t="s">
         <v>60</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64">
         <v>37</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K64" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>192</v>
       </c>
@@ -4016,32 +4215,35 @@
       <c r="C65" t="s">
         <v>193</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65">
         <v>38</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K65" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -4051,25 +4253,28 @@
       <c r="C66" t="s">
         <v>17</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66">
         <v>38</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>270</v>
       </c>
     </row>

--- a/Systems.xlsx
+++ b/Systems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="375" windowWidth="21735" windowHeight="12210"/>
+    <workbookView xWindow="645" yWindow="375" windowWidth="24135" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="NOV_C+DNA_methylase×2 all" sheetId="2" r:id="rId1"/>
@@ -643,201 +643,39 @@
     <t># represenative</t>
   </si>
   <si>
-    <t>Anoxybacillus species BCO1</t>
-  </si>
-  <si>
-    <t>Actinobacillus ureae NCTC10220</t>
-  </si>
-  <si>
-    <t>Actinobacillus ureae NCTC10221</t>
-  </si>
-  <si>
-    <t>Bacillus altitudinis RIT380</t>
-  </si>
-  <si>
     <t>CCCGT</t>
   </si>
   <si>
-    <t>Bacillus species 17376</t>
-  </si>
-  <si>
     <t>CCCGC</t>
   </si>
   <si>
-    <t>Bacillus cereus MRY14-0060</t>
-  </si>
-  <si>
-    <t>Bacillus cereus MRY14-0075</t>
-  </si>
-  <si>
-    <t>Bacteroides salyersiae BFG-288</t>
-  </si>
-  <si>
     <t>Clostridiales bacterium WTE2008</t>
   </si>
   <si>
-    <t>Clostridioides difficile R1</t>
-  </si>
-  <si>
-    <t>Clostridioides difficile R2</t>
-  </si>
-  <si>
-    <t>Clostridioides difficile R3</t>
-  </si>
-  <si>
-    <t>Chryseobacterium species Hurlbut01</t>
-  </si>
-  <si>
-    <t>Cyanobacterium stanieri HL-69</t>
-  </si>
-  <si>
     <t>Clostridium sticklandii</t>
   </si>
   <si>
     <t>Eubacterium acidaminophilum</t>
   </si>
   <si>
-    <t>Flavobacterium aurantiibacter TH167</t>
-  </si>
-  <si>
     <t>Flavobacteriaceae bacterium HQM9</t>
   </si>
   <si>
     <t>Gut metagenome</t>
   </si>
   <si>
-    <t>Gillisia species Hel1_33_143</t>
-  </si>
-  <si>
-    <t>Geminocystis species NIES-3708</t>
-  </si>
-  <si>
-    <t>Gardnerella vaginalis CMW7778B</t>
-  </si>
-  <si>
-    <t>Kingella kingae 4177/66</t>
-  </si>
-  <si>
-    <t>Kingella kingae NCTC10529</t>
-  </si>
-  <si>
     <t>Kingella kingae</t>
   </si>
   <si>
-    <t>Kingella negevensis SW7208426</t>
-  </si>
-  <si>
-    <t>Lactobacillus amylovorus MT30</t>
-  </si>
-  <si>
-    <t>Lactococcus lactis subsp. lactis NCDO 2118</t>
-  </si>
-  <si>
-    <t>Lactococcus lactis subsp. lactis KF147</t>
-  </si>
-  <si>
-    <t>Moraxella atlantae NCTC11091</t>
-  </si>
-  <si>
     <t>Marivirga tractuosa</t>
   </si>
   <si>
     <t>Nanoarchaeota archaeon isolate Modern_marine.mb.67</t>
   </si>
   <si>
-    <t>Neisseria mucosa C102</t>
-  </si>
-  <si>
-    <t>Neisseria mucosa FDAARGOS_758</t>
-  </si>
-  <si>
-    <t>Porphyromonas canoris COT-108 OH1224</t>
-  </si>
-  <si>
-    <t>Prevotella corporis MJR7716</t>
-  </si>
-  <si>
-    <t>Parabacteroides distasonis FDAARGOS_615</t>
-  </si>
-  <si>
-    <t>Prevotella fusca JCM 17724 W1435</t>
-  </si>
-  <si>
-    <t>Prevotella intermedia KCOM 2833</t>
-  </si>
-  <si>
-    <t>Prevotella intermedia KCOM 2838</t>
-  </si>
-  <si>
-    <t>Piscirickettsia species Y2</t>
-  </si>
-  <si>
-    <t>Prevotella melaninogenica F0054</t>
-  </si>
-  <si>
-    <t>Prevotella melaninogenica F0091</t>
-  </si>
-  <si>
     <t>Prevotella multiformis</t>
   </si>
   <si>
-    <t>Planococcus species 107-1</t>
-  </si>
-  <si>
-    <t>Ruminococcus albus 8</t>
-  </si>
-  <si>
-    <t>Ruminococcus species Marseille-P328</t>
-  </si>
-  <si>
-    <t>Streptococcus mitis SK1073</t>
-  </si>
-  <si>
-    <t>Streptococcus mitis B6</t>
-  </si>
-  <si>
-    <t>Streptococcus pneumoniae SP6-BS73</t>
-  </si>
-  <si>
-    <t>Streptococcus pneumoniae isolate PKMM4</t>
-  </si>
-  <si>
-    <t>Streptococcus pneumoniae 6A-10</t>
-  </si>
-  <si>
-    <t>Streptococcus pneumoniae MDR-MM-0720-0522</t>
-  </si>
-  <si>
-    <t>Streptococcus pneumoniae NT_110_58</t>
-  </si>
-  <si>
-    <t>Streptococcus pneumoniae GA17971</t>
-  </si>
-  <si>
-    <t>Streptococcus pneumoniae 2245STDY5775666</t>
-  </si>
-  <si>
-    <t>Streptococcus pneumoniae MNZ85</t>
-  </si>
-  <si>
-    <t>Streptococcus pneumoniae NCTC11889</t>
-  </si>
-  <si>
-    <t>Streptococcus pneumoniae NCTC11899</t>
-  </si>
-  <si>
-    <t>Streptococcus ruminantium GUT-183</t>
-  </si>
-  <si>
-    <t>Streptococcus sanguinis KLC04R</t>
-  </si>
-  <si>
-    <t>Streptococcus sanguinis SK1</t>
-  </si>
-  <si>
-    <t>Streptococcus sanguinis NCTC7863</t>
-  </si>
-  <si>
     <t>Organism</t>
   </si>
   <si>
@@ -1013,13 +851,1409 @@
   </si>
   <si>
     <t>System in REBASE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Anoxybacillus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> species BCO1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actinobacillus ureae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NCTC10220</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actinobacillus ureae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NCTC10221</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bacillus altitudinis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RIT380</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bacillus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> species 17376</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bacillus cereus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MRY14-0060</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bacillus cereus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MRY14-0075</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bacteroides salyersiae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BFG-288</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clostridioides difficile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> R1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clostridioides difficile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> R2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clostridioides difficile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> R3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chryseobacterium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> species Hurlbut01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cyanobacterium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stanieri HL-69</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flavobacterium aurantiibacter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TH167</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gillisia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> species Hel1_33_143</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Geminocystis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> species NIES-3708</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gardnerella vaginalis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CMW7778B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kingella kingae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4177/66</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kingella kingae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NCTC10529</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kingella negevensis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SW7208426</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lactobacillus amylovorus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MT30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lactococcus lactis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subsp. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lactis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NCDO 2118</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lactococcus lactis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subsp. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lactis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> KF147</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moraxella atlantae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NCTC11091</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Neisseria mucosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> C102</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Neisseria mucosa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FDAARGOS_758</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Porphyromonas canoris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> COT-108 OH1224</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prevotella corporis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MJR7716</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parabacteroides distasonis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FDAARGOS_615</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prevotella fusca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JCM 17724 W1435</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prevotella intermedia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> KCOM 2833</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prevotella intermedia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> KCOM 2838</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Piscirickettsia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> species Y2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prevotella melaninogenica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> F0054</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prevotella melaninogenica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> F0091</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planococcus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> species 107-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ruminococcus albus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ruminococcus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> species Marseille-P328</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus mitis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SK1073</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus mitis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus pneumoniae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SP6-BS73</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus pneumoniae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> isolate PKMM4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus pneumoniae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6A-10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus pneumoniae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MDR-MM-0720-0522</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus pneumoniae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NT_110_58</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus pneumoniae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GA17971</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus pneumoniae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2245STDY5775666</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus pneumoniae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MNZ85</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus pneumoniae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NCTC11889</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus pneumoniae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NCTC11899</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus ruminantium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GUT-183</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus sanguinis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> KLC04R</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus sanguinis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SK1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Streptococcus sanguinis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NCTC7863</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1178,6 +2412,15 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1521,10 +2764,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1862,9 +3106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1873,7 +3115,7 @@
     <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
@@ -1892,31 +3134,31 @@
         <v>197</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="E1" t="s">
         <v>199</v>
       </c>
       <c r="F1" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="G1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" t="s">
         <v>265</v>
       </c>
-      <c r="H1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I1" t="s">
-        <v>318</v>
-      </c>
-      <c r="J1" t="s">
-        <v>319</v>
-      </c>
       <c r="K1" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="L1" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1935,23 +3177,23 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>200</v>
+      <c r="G2" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1970,23 +3212,23 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>201</v>
+      <c r="G3" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2005,23 +3247,23 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>202</v>
+      <c r="G4" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2041,25 +3283,25 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2079,25 +3321,25 @@
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2117,25 +3359,25 @@
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2155,25 +3397,25 @@
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2192,23 +3434,23 @@
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>209</v>
+      <c r="G9" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2227,23 +3469,23 @@
       <c r="E10">
         <v>7</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>210</v>
+      <c r="G10" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2262,23 +3504,23 @@
       <c r="E11">
         <v>8</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>211</v>
+      <c r="G11" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2297,23 +3539,23 @@
       <c r="E12">
         <v>8</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>212</v>
+      <c r="G12" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2332,23 +3574,23 @@
       <c r="E13">
         <v>8</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>213</v>
+      <c r="G13" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2368,25 +3610,25 @@
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2405,23 +3647,23 @@
       <c r="E15">
         <v>10</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>215</v>
+      <c r="G15" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2440,23 +3682,23 @@
       <c r="E16">
         <v>11</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2476,25 +3718,25 @@
         <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2513,23 +3755,23 @@
       <c r="E18">
         <v>13</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>218</v>
+      <c r="G18" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2549,25 +3791,25 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2587,22 +3829,22 @@
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2622,22 +3864,22 @@
         <v>16</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2657,25 +3899,25 @@
         <v>17</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2694,23 +3936,23 @@
       <c r="E23">
         <v>18</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>222</v>
+      <c r="G23" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2730,22 +3972,22 @@
         <v>19</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2765,25 +4007,25 @@
         <v>20</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2802,23 +4044,23 @@
       <c r="E26">
         <v>20</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>225</v>
+      <c r="G26" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2838,25 +4080,25 @@
         <v>20</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>226</v>
+        <v>201</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2875,23 +4117,23 @@
       <c r="E28">
         <v>21</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>227</v>
+      <c r="G28" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2910,23 +4152,23 @@
       <c r="E29">
         <v>22</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>228</v>
+      <c r="G29" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2946,25 +4188,25 @@
         <v>23</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>229</v>
+        <v>201</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2984,25 +4226,25 @@
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>230</v>
+        <v>201</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3021,23 +4263,23 @@
       <c r="E32">
         <v>24</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>231</v>
+      <c r="G32" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3057,25 +4299,25 @@
         <v>25</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>232</v>
+        <v>201</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3094,23 +4336,23 @@
       <c r="E34">
         <v>26</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>233</v>
+      <c r="G34" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3130,25 +4372,25 @@
         <v>27</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3167,23 +4409,23 @@
       <c r="E36">
         <v>27</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>235</v>
+      <c r="G36" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3203,25 +4445,25 @@
         <v>28</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>236</v>
+        <v>201</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3241,25 +4483,25 @@
         <v>29</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3278,23 +4520,23 @@
       <c r="E39">
         <v>6</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>238</v>
+      <c r="G39" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3313,23 +4555,23 @@
       <c r="E40">
         <v>29</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>239</v>
+      <c r="G40" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3349,25 +4591,25 @@
         <v>29</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>239</v>
+        <v>201</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3386,23 +4628,23 @@
       <c r="E42">
         <v>29</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>240</v>
+      <c r="G42" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3421,23 +4663,23 @@
       <c r="E43">
         <v>29</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>241</v>
+      <c r="G43" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3456,23 +4698,23 @@
       <c r="E44">
         <v>30</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>242</v>
+      <c r="G44" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3491,23 +4733,23 @@
       <c r="E45">
         <v>29</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>243</v>
+      <c r="G45" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3526,23 +4768,23 @@
       <c r="E46">
         <v>29</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>244</v>
+      <c r="G46" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3562,25 +4804,25 @@
         <v>31</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>245</v>
+        <v>200</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3599,23 +4841,23 @@
       <c r="E48">
         <v>32</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>246</v>
+      <c r="G48" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3635,25 +4877,25 @@
         <v>33</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3673,25 +4915,25 @@
         <v>34</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>248</v>
+        <v>200</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3711,25 +4953,25 @@
         <v>35</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>249</v>
+        <v>201</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3749,25 +4991,25 @@
         <v>35</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>250</v>
+        <v>201</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3787,25 +5029,25 @@
         <v>35</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3825,25 +5067,25 @@
         <v>35</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>252</v>
+        <v>201</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3862,23 +5104,23 @@
       <c r="E55">
         <v>35</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>253</v>
+      <c r="G55" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3897,23 +5139,23 @@
       <c r="E56">
         <v>35</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>254</v>
+      <c r="G56" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3933,25 +5175,25 @@
         <v>35</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>255</v>
+        <v>201</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3971,25 +5213,25 @@
         <v>35</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>256</v>
+        <v>201</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4008,23 +5250,23 @@
       <c r="E59">
         <v>35</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>257</v>
+      <c r="G59" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4044,25 +5286,25 @@
         <v>35</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>258</v>
+        <v>201</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4081,23 +5323,23 @@
       <c r="E61">
         <v>35</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>259</v>
+      <c r="G61" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4116,23 +5358,23 @@
       <c r="E62">
         <v>35</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>260</v>
+      <c r="G62" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4151,23 +5393,23 @@
       <c r="E63">
         <v>36</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>261</v>
+      <c r="G63" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4186,23 +5428,23 @@
       <c r="E64">
         <v>37</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>262</v>
+      <c r="G64" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4222,25 +5464,25 @@
         <v>38</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>263</v>
+        <v>201</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4259,23 +5501,23 @@
       <c r="E66">
         <v>38</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>264</v>
+      <c r="G66" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
